--- a/update_data/data/bank_psbc/qa/邮储问答.xlsx
+++ b/update_data/data/bank_psbc/qa/邮储问答.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="222">
   <si>
     <t>问题</t>
   </si>
@@ -904,18 +904,6 @@
   </si>
   <si>
     <t>邮储有手机银行吗/有手机银行吗/手机银行有没有/邮储有没有手机银行/手机银行，邮储有吗/听说，邮储有手机银行，是吗/你们这有手机银行吗/储储，有没有手机银行/有没有邮储手机银行app/有邮储手机银行app吗/你们银行有手机银行app吗/你们银行有app吗/</t>
-  </si>
-  <si>
-    <t>二维码</t>
-  </si>
-  <si>
-    <t>怎么激活手机银行</t>
-  </si>
-  <si>
-    <t>您可以带上身份证和银行卡，取号到柜台激活手机银行。</t>
-  </si>
-  <si>
-    <t>怎么激活手机银行/怎么激活/如何激活/我要激活手机银行/我想激活手机银行/我手机银行还没有激活呢/手机银行不能转账，需要激活一下/激活手机银行/在哪激活手机银行/手机银行怎么激活/手机银行在哪激活/手机银行是到柜台激活吗</t>
   </si>
   <si>
     <t>激活手机银行需要带什么吗</t>
@@ -1491,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1951,8 +1939,8 @@
         <v>218</v>
       </c>
       <c r="E25" s="45"/>
-      <c r="F25" s="45" t="s">
-        <v>219</v>
+      <c r="F25" s="33" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1">
@@ -1969,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2723,37 +2711,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="40.5">
+    <row r="44" spans="1:5" ht="27">
       <c r="A44" s="39" t="s">
         <v>168</v>
       </c>
       <c r="B44" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="D44" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="45" t="s">
-        <v>222</v>
-      </c>
       <c r="E44" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="27">
-      <c r="A45" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="29" t="s">
         <v>27</v>
       </c>
     </row>

--- a/update_data/data/bank_psbc/qa/邮储问答.xlsx
+++ b/update_data/data/bank_psbc/qa/邮储问答.xlsx
@@ -717,10 +717,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>二维码在哪/扫哪里的二维码/没有看到二维码啊/哪有二维码/在哪呢，二维码/二维码在哪里/二维码在哪扫/二维码没看到呀/二维码哪呢/二维码哪有/没看到二维码/你说的二维码在哪/怎么没有看到二维码/可以告诉我二维码在哪吗/没有找到二维码/扫哪里的二维码/怎么没有二维码/没有看到你说的二维码/有二维码吗/二维码在何处/何处有二维码呢/没有寻找到二维码/请问二维码在何处/请问二维码看到了吗/请告诉一下二维码在哪里/你说的二维码没有找到/你说的二维码在哪呢/二维码哪里有啊/怎么没有找到二维码/二维码有吗/有二维码吗/在哪里扫二维码/扫哪里的二维码/何处有二维码可以扫/扫何处的二维码/要扫哪里的二维码/没看见二维码/二维码没看见/我怎么没看见二维码/二维码我怎么没看见/哪里有二维码/你知道哪里有二维码/二维码哪里有你知道吗/请告诉我二维码在哪里/二维码在哪里请告诉我/请告诉我二维码/麻烦告诉我二维在哪里/机器人告诉我二维码/储储告诉我二维码/储储二维码/储储你的二维码呢/储储推出你的二维码/你有二维码吗/你的二维码呢/把你二维码推出来/推出你的二维码/机器人推出你的二维码/亮出你的二维码/我要扫扫你的二维码/你的二维码让我扫扫/把你的二维码让我扫扫/听说你有二维码/二维码你有吗/我想扫你的二维码有吗/手机银行在哪里/你有手机银行吗/储储你有手机银行吗/我要扫二维码/我要扫码/扫码/扫二维码/二维码露出了/二维码给我看/二维码呢/我要二维码/我扫码/我来扫二维码/我要扫邮储手机银行二维码/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>这是什么二维码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -733,18 +729,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我用什么扫描二维码/二维码用什么扫的/用什么扫描你们的二维码/你们的二维码可以用什么扫/用什么软件扫描你们店的二维码/你们店里面的二维码要用什么扫描/用什么扫/拿什么扫/用这个扫吗/用什么扫二维码/拿什么扫二维码/用这个扫二维码吗/拿什么东西扫/拿什么东西扫二维码/怎么用手机扫二维码/扫过二维码我怎么使用/二维码扫过就可以使用吗/怎么扫/请问用手机扫二维码吗/如何用手机扫二维码/手机就可以扫二维码吗/用手机吗/告诉我手机怎么扫码/如何才能扫码/怎样才能扫二维码/什么都可以扫二维码/规定用什么扫码吗/什么软件可以扫码/如何使用手机扫码/如何扫码/怎么扫码/什么都可以扫码吗/请问用什么扫码/请问是用手机扫码吗/请问用手机怎么扫码/扫码可以直接用手机吗/二维码可以用什么扫/我没的微信/没有微信可以扫吗/一定要用微信吗/没有微信怎么办/QQ可以扫吗/用QQ扫可以吗/扫不了没有微信/我用QQ扫可以吗/我没有微信软件/我没有下载微信/我不用微信/微信我没下载/用微信扫可以吗/用QQ扫可以吗/QQ扫有用吗/用支付宝扫可以吗/扫支付宝可以吗/我只有支付宝/支付宝扫一下有用吗/支付宝扫一扫有用吗/淘宝扫一扫有用吗/我只有淘宝/用支付宝扫有用吗/其他软件可以扫吗/用支付宝扫有用吗/用淘宝扫有用吗/其他扫一扫可以吗/QQ扫可以吗/支付宝扫可以吗/淘宝扫可以吗/可以用淘宝吗/可以用QQ吗/可以用支付宝吗/能用QQ扫吗/能用QQ扫二维码吗/能用支付宝扫二维码吗/能用支付宝扫吗/能用淘宝扫吗/能用淘宝扫二维吗/淘宝扫二维码有用吗/支付宝扫二维码有用吗/QQ扫二维码有用吗/怎么扫码/扫码用什么/怎么扫码/扫码需要怎么扫/什么可以扫码/什么是用来扫码的？/用什么扫码啊？/我要用什么来扫码？/扫码可以用什么？/用什么可以扫码啊？/扫码用什么扫？/用什么扫码？/扫码用什么？/什么可以扫码？/二维码用什么扫的/用什么扫描你们的二维码/你们的二维码可以用什么扫/用什么软件扫描你们店的二维码/你们店里面的二维码要用什么扫描啊//什么都可以扫码吗？/随便什么软件都可以扫码吗/扫码有什么特别的讲究吗/有什么限制吗？/可以随便扫码？/我想用支付宝扫码可以吗？/我想用支付宝扫一下可以吗？用微信扫一扫是可以的吧？/不同软件扫出来的东西是一样的吧？/用不同软件扫出来会有区别吗？/怎么扫码？/怎么可以扫二维码？/二维码怎么扫？/怎么扫？/怎么扫描二维码啊？/二维码怎么扫描？/用什么扫?/用什么扫码啊？/扫码用什么？/扫码用啥？/啥东西可以扫码？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>你们有WiFi下载么</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你们有WiFi下载么/这么大，有无线网么/银行有无线网么/好大啊/你们银行有无线吗/怎么连无线啊/有无线吗/有wifi吗/怎么连wifi/你们银行wifi是什么/连个无线/怎么连无线/我要连无线/你们WiFi密码是多少怎么连接wifi/你们有没有无线网/你们的无线网是什么啊/无线网密码是什么/可有无线网吗/有没有wifi啊/wifi是什么/wifi密码是什么/能告诉我你们的无线网吗/可以告诉我你们无线网是哪个吗/我能连一下你们的无线网吗/可以连你们的无线网吗/这儿有无线网吗/这儿的无线网密码是啥/哪里可以免费下载/你们这里有wifi吗/你们有免费网络吗/wifi/有没有wifi/我能连接你们家无线网吗/你能告诉我你们家无线网是什么吗/可不可以告诉我你们店的无线/你们的无线网是什么/哪个是你们店的无线网/你们店有没有wifi/有网啊/没有网/有没有网啊/手机没流量了/没流量怎么办/你们这个要下软件啊/用流量下载太奢侈了/还要下载软件啊/手机没流量啊/手机没流量怎么下载/没流量咋弄/没流量咋办/我手机木有流量呀/手机没流量咋办/我手机流量已经用完了/这个软件要这么多流量啊/我没有流量了/流量不够/没流量啊/流量用光了/流量不够用啊/流量不够了/流量很贵的/怎么连你们的无线/怎么连接你们的无线网/流量不够/数据流量不够了/你们软件太大了，浪费流量/流量可是很贵的，有无线网吗/流量没有了/已经没有手机流量了/手机流量用完了怎么下载/手机流量用完了如何下载/没有手机流量如何下载/需要太多流量，我的不够/流量使用太多，已经不多了/如何连接你们的无线网/怎么才能连接你们的无线网/可以告诉我如何连接吗/怎么连接/流量没有了如何连接/流量使用差不多了/手机已使用超出流量/流量已使用完了/你们银行有wifi吗/把银行wifi告诉我/告诉我银行wifi/你们银行wifi是多少/有免费的wifi吗/免费的wif/i银行wifi说一下/你知道银行wifi吗/银行wifi多少/你们这有免费wifi吗/能告诉我wifi吗/可以免费上网吗/上网可以免费吗/有免费无线吗/免费无线有吗/能告诉我免费无线吗/你知道你们免费无线吗/你知道你们银行wifi吗/把免费无线告诉我/把银行wifi告诉我/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我手机没流量了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -773,10 +761,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>没有手机号能下载吗/我没有手机号码可以吗/没有手机号码怎么办/没手机号/我没手机号呀/我没有手机呀/我没有手机号码/没有手机号咋弄/没有手机号能办吗？/没有手机号码可以吗/没有手机行不行/没有手机号码行不行/可是我没有手机号码的/可我没有手机号码的/为什么要手机号/能不要手机号吗/不要手机号可以吗/不要行不行/不要行吗/能不给吗/不给可以吗/不给行不行/不给行吗/没有手机咋办呀/没有手机可以吗/没有号码行不行/我没有手机/为什么要号码/没有手机行吗/没有手机行不行/我没有手机怎么办/没带手机收不到/没带手机怎么办/手机忘带了怎么收/忘记带手机了收不到/没带手机咋办呢/手机没带怎么办/我手机没带收不到/没带手机接收不了/没带手机/没拿手机/手机没拿/手机没带/没有手机/忘记拿手机了/忘记带手机了/手机忘记拿了/手机忘记带了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我验证码怎么收不到？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -789,10 +773,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我怎么连不上无线网/我连不上无线网/我连不上/连不上无线网啊/无线网连不上/连不上无线网怎么办/就是连不上/怎么连不上无线网啊/无线网是坏的/怎么连接不上呢/你们的无线网我怎么连接不上/连不上网啊/网连不上/无线网是坏的/无线网无法使用/无线网用不成/无线网用不了/无线网无法连接/无线/无线网怎么连接不上啊/我连接你们的无线网怎么连接不上/连接失败怎么办/无线网连接失败/无线网没连上/没连上无线网/我连接你们的无线网怎么连接不上/连接失败怎么办/你们的无线网是不是坏了/无线网连接失败/无线网没连上/密码错误/连不上/无线用不了/无线怎么用不了啊/我连接你们无线怎么连接不上/为什么无线网连不上啊/为什么无线网连接失败呢/为什么无线网无法连接呀/为什么无线网没连上/密码怎么会显示错误呢/为什么密码提示错误呢/无线网为什么连不上/无线网怎么连接失败呢/连接不成功/没连接成功/怎么没连接成功/显示没成功/显示失败/怎么连接失败/怎么会连接失败连接显示失败/连接没成功/显示连接失败/显示没连接成功/显示连接不成功/为什么会显示连接失败/为什么会连接不成功/为什么无法连接/为什么连接失败/怎么会连接失败呢/怎么会显示连接失败呢/连接不上怎么办/连接不上是什么问题/为啥会连接不上/连接不上找谁反应/怎么一直连接不上啊/帮我看看连接不上是什么原因/连接不上你帮我看看/连接显示不成功怎么办/连接显示失败怎么办/帮我看看怎么会显示连接失败/帮我看看怎么会显示连接不成功/无线网连接不成/无线网连不上/无线网连不了怎么办/无线网连不上怎么办/无线网连不上/无线网连不上怎么办/无线网连不上怎么回事/无线网连不上什么原因/无线网连不上是什么意思/无线网连不上是怎么造成的/无线网显示连不上/无线网提示连不上/无线网怎么连不上/无线网提示连不上/无线网提示连不上是什么意思/无线网提示连不上是什么原因/无线网提示连不上是什么情况/无线网显示连不上是什么造成的/无线网连接失败是怎么造成的/无线网多次失败/无线网多次显示失败/无线网多次提示失败/无线网多次连接失败怎么办/无线网总是显示失败/无线网总是提示失败什么原因/无线网频繁提示失败/帮我看看为什么无线网会显示失败/帮我看看为什么无线网会提示失败/帮我看看无线网连不上这么操作/帮我看看无线网连不上怎么解决/帮我看看无线网连不上怎么处理/无线网总是连接失败怎么解决/无线网总是连接失败怎么操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我怎么获得验证码？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -913,13 +893,85 @@
   </si>
   <si>
     <t>激活手机银行需要带什么吗/激活手机银行需要哪些东西/激活手机银行需要带身份证吗/激活手机银行需要带银行卡吗/</t>
+  </si>
+  <si>
+    <r>
+      <t>没有手机号能下载吗/我没有手机号码可以吗/没有手机号码怎么办/没手机号/我没手机号呀/我没有手机呀/我没有手机号码/没有手机号咋弄/没有手机号能办吗？/没有手机号码可以吗/没有手机行不行/没有手机号码行不行/可是我没有手机号码的/可我没有手机号码的/为什么要手机号/能不要手机号吗/不要手机号可以吗/不要行不行/不要行吗/能不给吗/不给可以吗/不给行不行/不给行吗/没有手机咋办呀/没有手机可以吗/没有号码行不行/我没有手机/为什么要号码/没有手机行吗/没有手机行不行/我没有手机怎么办/没带手机收不到/没带手机怎么办/手机忘带了怎么收/忘记带手机了收不到/没带手机咋办呢/手机没带怎么办/我手机没带收不到/没带手机接收不了/没带手机/没拿手机/手机没拿/手机没带/没有手机/忘记拿手机了/忘记带手机了/手机忘记拿了/手机忘记带了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/我没有手机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>二维码在哪/扫哪里的二维码/没有看到二维码啊/哪有二维码/在哪呢，二维码/二维码在哪里/二维码在哪扫/二维码没看到呀/二维码哪呢/二维码哪有/没看到二维码/你说的二维码在哪/怎么没有看到二维码/可以告诉我二维码在哪吗/没有找到二维码/扫哪里的二维码/怎么没有二维码/没有看到你说的二维码/有二维码吗/二维码在何处/何处有二维码呢/没有寻找到二维码/请问二维码在何处/请问二维码看到了吗/请告诉一下二维码在哪里/你说的二维码没有找到/你说的二维码在哪呢/二维码哪里有啊/怎么没有找到二维码/二维码有吗/有二维码吗/在哪里扫二维码/扫哪里的二维码/何处有二维码可以扫/扫何处的二维码/要扫哪里的二维码/没看见二维码/二维码没看见/我怎么没看见二维码/二维码我怎么没看见/哪里有二维码/你知道哪里有二维码/二维码哪里有你知道吗/请告诉我二维码在哪里/二维码在哪里请告诉我/请告诉我二维码/麻烦告诉我二维在哪里/机器人告诉我二维码/储储告诉我二维码/储储二维码/储储你的二维码呢/储储推出你的二维码/你有二维码吗/你的二维码呢/把你二维码推出来/推出你的二维码/机器人推出你的二维码/亮出你的二维码/我要扫扫你的二维码/你的二维码让我扫扫/把你的二维码让我扫扫/听说你有二维码/二维码你有吗/我想扫你的二维码有吗/手机银行在哪里/你有手机银行吗/储储你有手机银行吗/我要扫二维码/我要扫码/扫码/扫二维码/二维码露出了/二维码给我看/二维码呢/我要二维码/我扫码/我来扫二维码/我要扫邮储手机银行二维码/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二维码有吗/扫你二维码</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们有WiFi下载么/这么大，有无线网么/银行有无线网么/好大啊/你们银行有无线吗/怎么连无线啊/有无线吗/有wifi吗/怎么连wifi/你们银行wifi是什么/连个无线/怎么连无线/我要连无线/你们WiFi密码是多少怎么连接wifi/你们有没有无线网/你们的无线网是什么啊/无线网密码是什么/可有无线网吗/有没有wifi啊/wifi是什么/wifi密码是什么/能告诉我你们的无线网吗/可以告诉我你们无线网是哪个吗/我能连一下你们的无线网吗/可以连你们的无线网吗/这儿有无线网吗/这儿的无线网密码是啥/哪里可以免费下载/你们这里有wifi吗/你们有免费网络吗/wifi/有没有wifi/我能连接你们家无线网吗/你能告诉我你们家无线网是什么吗/可不可以告诉我你们店的无线/你们的无线网是什么/哪个是你们店的无线网/你们店有没有wifi/有网啊/没有网/有没有网啊/手机没流量了/没流量怎么办/你们这个要下软件啊/用流量下载太奢侈了/还要下载软件啊/手机没流量啊/手机没流量怎么下载/没流量咋弄/没流量咋办/我手机木有流量呀/手机没流量咋办/我手机流量已经用完了/这个软件要这么多流量啊/我没有流量了/流量不够/没流量啊/流量用光了/流量不够用啊/流量不够了/流量很贵的/怎么连你们的无线/怎么连接你们的无线网/流量不够/数据流量不够了/你们软件太大了，浪费流量/流量可是很贵的，有无线网吗/流量没有了/已经没有手机流量了/手机流量用完了怎么下载/手机流量用完了如何下载/没有手机流量如何下载/需要太多流量，我的不够/流量使用太多，已经不多了/如何连接你们的无线网/怎么才能连接你们的无线网/可以告诉我如何连接吗/怎么连接/流量没有了如何连接/流量使用差不多了/手机已使用超出流量/流量已使用完了/你们银行有wifi吗/把银行wifi告诉我/告诉我银行wifi/你们银行wifi是多少/有免费的wifi吗/免费的wif/i银行wifi说一下/你知道银行wifi吗/银行wifi多少/你们这有免费wifi吗/能告诉我wifi吗/可以免费上网吗/上网可以免费吗/有免费无线吗/免费无线有吗/能告诉我免费无线吗/你知道你们免费无线吗/你知道你们银行wifi吗/把免费无线告诉我/把银行wifi告诉我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我怎么连不上无线网/我连不上无线网/我连不上/连不上无线网啊/无线网连不上/连不上无线网怎么办/就是连不上/怎么连不上无线网啊/无线网是坏的/怎么连接不上呢/你们的无线网我怎么连接不上/连不上网啊/网连不上/无线网是坏的/无线网无法使用/无线网用不成/无线网用不了/无线网无法连接/无线/无线网怎么连接不上啊/我连接你们的无线网怎么连接不上/连接失败怎么办/无线网连接失败/无线网没连上/没连上无线网/我连接你们的无线网怎么连接不上/连接失败怎么办/你们的无线网是不是坏了/无线网连接失败/无线网没连上/密码错误/连不上/无线用不了/无线怎么用不了啊/我连接你们无线怎么连接不上/为什么无线网连不上啊/为什么无线网连接失败呢/为什么无线网无法连接呀/为什么无线网没连上/密码怎么会显示错误呢/为什么密码提示错误呢/无线网为什么连不上/无线网怎么连接失败呢/连接不成功/没连接成功/怎么没连接成功/显示没成功/显示失败/怎么连接失败/怎么会连接失败连接显示失败/连接没成功/显示连接失败/显示没连接成功/显示连接不成功/为什么会显示连接失败/为什么会连接不成功/为什么无法连接/为什么连接失败/怎么会连接失败呢/怎么会显示连接失败呢/连接不上怎么办/连接不上是什么问题/为啥会连接不上/连接不上找谁反应/怎么一直连接不上啊/帮我看看连接不上是什么原因/连接不上你帮我看看/连接显示不成功怎么办/连接显示失败怎么办/帮我看看怎么会显示连接失败/帮我看看怎么会显示连接不成功/无线网连接不成/无线网连不上/无线网连不了怎么办/无线网连不上怎么办/无线网连不上/无线网连不上怎么办/无线网连不上怎么回事/无线网连不上什么原因/无线网连不上是什么意思/无线网连不上是怎么造成的/无线网显示连不上/无线网提示连不上/无线网怎么连不上/无线网提示连不上/无线网提示连不上是什么意思/无线网提示连不上是什么原因/无线网提示连不上是什么情况/无线网显示连不上是什么造成的/无线网连接失败是怎么造成的/无线网多次失败/无线网多次显示失败/无线网多次提示失败/无线网多次连接失败怎么办/无线网总是显示失败/无线网总是提示失败什么原因/无线网频繁提示失败/帮我看看为什么无线网会显示失败/帮我看看为什么无线网会提示失败/帮我看看无线网连不上这么操作/帮我看看无线网连不上怎么解决/帮我看看无线网连不上怎么处理/无线网总是连接失败怎么解决/无线网总是连接失败怎么操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/wifi未连接啊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我用什么扫描二维码/二维码用什么扫的/用什么扫描你们的二维码/你们的二维码可以用什么扫/用什么软件扫描你们店的二维码/你们店里面的二维码要用什么扫描/用什么扫/拿什么扫/用这个扫吗/用什么扫二维码/拿什么扫二维码/用这个扫二维码吗/拿什么东西扫/拿什么东西扫二维码/怎么用手机扫二维码/扫过二维码我怎么使用/二维码扫过就可以使用吗/怎么扫/请问用手机扫二维码吗/如何用手机扫二维码/手机就可以扫二维码吗/用手机吗/告诉我手机怎么扫码/如何才能扫码/怎样才能扫二维码/什么都可以扫二维码/规定用什么扫码吗/什么软件可以扫码/如何使用手机扫码/如何扫码/怎么扫码/什么都可以扫码吗/请问用什么扫码/请问是用手机扫码吗/请问用手机怎么扫码/扫码可以直接用手机吗/二维码可以用什么扫/我没的微信/没有微信可以扫吗/一定要用微信吗/没有微信怎么办/QQ可以扫吗/用QQ扫可以吗/扫不了没有微信/我用QQ扫可以吗/我没有微信软件/我没有下载微信/我不用微信/微信我没下载/用微信扫可以吗/用QQ扫可以吗/QQ扫有用吗/用支付宝扫可以吗/扫支付宝可以吗/我只有支付宝/支付宝扫一下有用吗/支付宝扫一扫有用吗/淘宝扫一扫有用吗/我只有淘宝/用支付宝扫有用吗/其他软件可以扫吗/用支付宝扫有用吗/用淘宝扫有用吗/其他扫一扫可以吗/QQ扫可以吗/支付宝扫可以吗/淘宝扫可以吗/可以用淘宝吗/可以用QQ吗/可以用支付宝吗/能用QQ扫吗/能用QQ扫二维码吗/能用支付宝扫二维码吗/能用支付宝扫吗/能用淘宝扫吗/能用淘宝扫二维吗/淘宝扫二维码有用吗/支付宝扫二维码有用吗/QQ扫二维码有用吗/怎么扫码/扫码用什么/怎么扫码/扫码需要怎么扫/什么可以扫码/什么是用来扫码的？/用什么扫码啊？/我要用什么来扫码？/扫码可以用什么？/用什么可以扫码啊？/扫码用什么扫？/用什么扫码？/扫码用什么？/什么可以扫码？/二维码用什么扫的/用什么扫描你们的二维码/你们的二维码可以用什么扫/用什么软件扫描你们店的二维码/你们店里面的二维码要用什么扫描啊//什么都可以扫码吗？/随便什么软件都可以扫码吗/扫码有什么特别的讲究吗/有什么限制吗？/可以随便扫码？/我想用支付宝扫码可以吗？/我想用支付宝扫一下可以吗？用微信扫一扫是可以的吧？/不同软件扫出来的东西是一样的吧？/用不同软件扫出来会有区别吗？/怎么扫码？/怎么可以扫二维码？/二维码怎么扫？/怎么扫？/怎么扫描二维码啊？/二维码怎么扫描？/用什么扫?/用什么扫码啊？/扫码用什么？/扫码用啥？/啥东西可以扫码？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/现在怎么扫二维码呢</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1047,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1479,11 +1539,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.875" style="21" customWidth="1"/>
     <col min="3" max="3" width="52.75" style="21" customWidth="1"/>
@@ -1492,7 +1552,7 @@
     <col min="6" max="6" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1512,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="193.5" customHeight="1">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>169</v>
       </c>
@@ -1523,300 +1583,300 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="101.25" customHeight="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="278.25" customHeight="1">
+    <row r="4" spans="1:6" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="243.75" customHeight="1">
+    <row r="5" spans="1:6" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="226.5" customHeight="1">
+    <row r="6" spans="1:6" ht="226.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>169</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="195" customHeight="1">
+    <row r="7" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="178.5" customHeight="1">
+    <row r="8" spans="1:6" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="119.25" customHeight="1">
+    <row r="9" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>169</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="180" customHeight="1">
+    <row r="10" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="288" customHeight="1">
+    <row r="11" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>169</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="134.25" customHeight="1">
+    <row r="12" spans="1:6" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="143.25" customHeight="1">
+    <row r="13" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>169</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="126" customHeight="1">
+    <row r="14" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>169</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="34" customFormat="1" ht="177" customHeight="1">
+    <row r="15" spans="1:6" s="34" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:6" ht="184.5" customHeight="1">
+    <row r="16" spans="1:6" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>169</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="169.5" customHeight="1">
+    <row r="17" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>169</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="214.5" customHeight="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="214.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>169</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="108">
+    <row r="19" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>169</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>29</v>
@@ -1826,18 +1886,18 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="202.5">
+    <row r="20" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>169</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>25</v>
@@ -1847,18 +1907,18 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="81" customHeight="1">
+    <row r="21" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>169</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>30</v>
@@ -1868,18 +1928,18 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="54">
+    <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>169</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>30</v>
@@ -1889,61 +1949,61 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" ht="227.25" customHeight="1">
+    <row r="23" spans="1:7" s="34" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" ht="149.25" customHeight="1">
+    <row r="24" spans="1:7" s="34" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>169</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="40.5">
+    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="16" t="s">
         <v>22</v>
       </c>
@@ -1963,7 +2023,7 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
@@ -1972,7 +2032,7 @@
     <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>82</v>
       </c>
@@ -1992,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="108.75" customHeight="1">
+    <row r="2" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>168</v>
       </c>
@@ -2009,7 +2069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="108.75" customHeight="1">
+    <row r="3" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
         <v>168</v>
       </c>
@@ -2026,7 +2086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="108.75" customHeight="1">
+    <row r="4" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>168</v>
       </c>
@@ -2043,7 +2103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="108.75" customHeight="1">
+    <row r="5" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
         <v>168</v>
       </c>
@@ -2061,7 +2121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="108.75" customHeight="1">
+    <row r="6" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
         <v>168</v>
       </c>
@@ -2078,7 +2138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="108.75" customHeight="1">
+    <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
         <v>168</v>
       </c>
@@ -2095,7 +2155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="108.75" customHeight="1">
+    <row r="8" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
         <v>168</v>
       </c>
@@ -2112,7 +2172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="108.75" customHeight="1">
+    <row r="9" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>168</v>
       </c>
@@ -2129,7 +2189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="108.75" customHeight="1">
+    <row r="10" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>168</v>
       </c>
@@ -2146,7 +2206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="108.75" customHeight="1">
+    <row r="11" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="39" t="s">
         <v>168</v>
       </c>
@@ -2163,7 +2223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="108.75" customHeight="1">
+    <row r="12" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39" t="s">
         <v>168</v>
       </c>
@@ -2180,7 +2240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="108.75" customHeight="1">
+    <row r="13" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
         <v>168</v>
       </c>
@@ -2197,7 +2257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="108.75" customHeight="1">
+    <row r="14" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39" t="s">
         <v>168</v>
       </c>
@@ -2214,7 +2274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="108.75" customHeight="1">
+    <row r="15" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="39" t="s">
         <v>168</v>
       </c>
@@ -2231,7 +2291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="108.75" customHeight="1">
+    <row r="16" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="39" t="s">
         <v>168</v>
       </c>
@@ -2248,7 +2308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="108.75" customHeight="1">
+    <row r="17" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
         <v>168</v>
       </c>
@@ -2265,7 +2325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="108.75" customHeight="1">
+    <row r="18" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="39" t="s">
         <v>168</v>
       </c>
@@ -2282,7 +2342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="108.75" customHeight="1">
+    <row r="19" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="39" t="s">
         <v>168</v>
       </c>
@@ -2300,7 +2360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="108.75" customHeight="1">
+    <row r="20" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39" t="s">
         <v>168</v>
       </c>
@@ -2317,7 +2377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="108.75" customHeight="1">
+    <row r="21" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="39" t="s">
         <v>168</v>
       </c>
@@ -2334,7 +2394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="108.75" customHeight="1">
+    <row r="22" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
         <v>168</v>
       </c>
@@ -2351,7 +2411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="108.75" customHeight="1">
+    <row r="23" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
         <v>168</v>
       </c>
@@ -2368,7 +2428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="108.75" customHeight="1">
+    <row r="24" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
         <v>168</v>
       </c>
@@ -2385,7 +2445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="108.75" customHeight="1">
+    <row r="25" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
         <v>168</v>
       </c>
@@ -2402,7 +2462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="108.75" customHeight="1">
+    <row r="26" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="39" t="s">
         <v>168</v>
       </c>
@@ -2422,7 +2482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="108.75" customHeight="1">
+    <row r="27" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
         <v>168</v>
       </c>
@@ -2439,7 +2499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="108.75" customHeight="1">
+    <row r="28" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="39" t="s">
         <v>168</v>
       </c>
@@ -2456,7 +2516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="108.75" customHeight="1">
+    <row r="29" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
         <v>168</v>
       </c>
@@ -2473,7 +2533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="108.75" customHeight="1">
+    <row r="30" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="39" t="s">
         <v>168</v>
       </c>
@@ -2490,7 +2550,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="108.75" customHeight="1">
+    <row r="31" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="39" t="s">
         <v>168</v>
       </c>
@@ -2507,7 +2567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="108.75" customHeight="1">
+    <row r="32" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="39" t="s">
         <v>168</v>
       </c>
@@ -2524,7 +2584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="108.75" customHeight="1">
+    <row r="33" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="39" t="s">
         <v>168</v>
       </c>
@@ -2541,7 +2601,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="108.75" customHeight="1">
+    <row r="34" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="39" t="s">
         <v>168</v>
       </c>
@@ -2558,7 +2618,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="108.75" customHeight="1">
+    <row r="35" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
         <v>168</v>
       </c>
@@ -2575,7 +2635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="108.75" customHeight="1">
+    <row r="36" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="39" t="s">
         <v>168</v>
       </c>
@@ -2592,7 +2652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="108.75" customHeight="1">
+    <row r="37" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="39" t="s">
         <v>168</v>
       </c>
@@ -2609,7 +2669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="108.75" customHeight="1">
+    <row r="38" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="39" t="s">
         <v>168</v>
       </c>
@@ -2626,7 +2686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="108.75" customHeight="1">
+    <row r="39" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="39" t="s">
         <v>168</v>
       </c>
@@ -2643,7 +2703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="108.75" customHeight="1">
+    <row r="40" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="39" t="s">
         <v>168</v>
       </c>
@@ -2660,7 +2720,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="108.75" customHeight="1">
+    <row r="41" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="39" t="s">
         <v>168</v>
       </c>
@@ -2677,7 +2737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="108.75" customHeight="1">
+    <row r="42" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="39" t="s">
         <v>168</v>
       </c>
@@ -2694,7 +2754,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="108.75" customHeight="1">
+    <row r="43" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="39" t="s">
         <v>168</v>
       </c>
@@ -2711,18 +2771,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27">
+    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="39" t="s">
         <v>168</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>27</v>

--- a/update_data/data/bank_psbc/qa/邮储问答.xlsx
+++ b/update_data/data/bank_psbc/qa/邮储问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="-15" windowWidth="9630" windowHeight="11745"/>
+    <workbookView xWindow="9585" yWindow="45" windowWidth="9630" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -721,10 +721,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这是什么二维码/这个二维码是什么/是什么/这是什么啊/扫了能干嘛/二维码是做什么的/二维码是干嘛的/二维码有什么用/这是什么二维码/这是手机银行吗/二维码有什么用处/二维码可以帮助到什么/你说说这是什么/储储是这是什么二维码/储储是这什么/机器人这是什么二维码/机器人这是什么//你给我看的是什么/储储你给我看的是什么/你脸上的是什么/你的脸怎么了/你的脸上怎么是二维码/二维码怎么在你脸上/你怎么把二维码亮出来了/储储你脸上的是什么/怎么你脸上有二维码/怎么二维码在你脸上/你怎么会有二维码/储储你怎么有二维码/你脸上是什么二维码/你脸上怎么有二维码/二维码怎么在你脸上/储储脸上怎么有二维码/二维码怎么在储储脸上/这是什么码/这个码是什么/这个二维码是干嘛的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我用什么扫描二维码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -798,10 +794,6 @@
   </si>
   <si>
     <t>还要下载好麻烦呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>还要下载好麻烦呀/好麻烦呀/你来教教我/教一下/你来帮我一下/你会吗/这么麻烦呀/麻烦死了/好烦呀/烦死了/麻烦死了/真麻烦/你帮帮我/怎么这么麻烦/够烦的/够麻烦的/好麻烦/你能教教我吗/你可以教一下我吗/能教教我吗/这么麻烦你帮我一下/这么麻烦你教教我/这么麻烦你能帮帮我吗/怎么这么麻烦呀/怎么这么麻烦呢/真够麻烦的/下载真的好麻烦/还要下载麻烦死了/还要下载好麻烦/还要下载够麻烦的/还要下载真麻烦/还要下载麻烦死了/还要下载烦死了/还要下载这么麻烦呢/我不要下载太麻烦了/下载麻烦死了我不要/下载的步骤是什么/请告诉我下下载的步骤/下载的步骤难吗/下载的步骤烦吗/麻烦提供下下载的步骤/下载的步骤能麻烦提供下给我嘛/我觉得下载很麻烦的/下载的步骤你能教教我吗/麻烦你教下我下载的步骤吧/下载的步骤能麻烦你教下我吗/下载麻烦吗需要什么步骤/下载麻烦吗需要怎么操作/下载麻烦吗要什么操作/输入手机号和验证码就可以下载吗/下载好繁琐啊/这个太繁琐了我不会/这个好繁琐啊怎么操作/怎么这么繁琐啊/可以说的仔细一点吗/可以把下载的步骤仔细说一下吗/这个下载好复杂啊/这个下载也太复杂了吧/这么复杂我不会操作/这么复杂我不知道怎么下载/这么复杂太麻烦了/这么繁琐太麻烦了/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -929,27 +921,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你们有WiFi下载么/这么大，有无线网么/银行有无线网么/好大啊/你们银行有无线吗/怎么连无线啊/有无线吗/有wifi吗/怎么连wifi/你们银行wifi是什么/连个无线/怎么连无线/我要连无线/你们WiFi密码是多少怎么连接wifi/你们有没有无线网/你们的无线网是什么啊/无线网密码是什么/可有无线网吗/有没有wifi啊/wifi是什么/wifi密码是什么/能告诉我你们的无线网吗/可以告诉我你们无线网是哪个吗/我能连一下你们的无线网吗/可以连你们的无线网吗/这儿有无线网吗/这儿的无线网密码是啥/哪里可以免费下载/你们这里有wifi吗/你们有免费网络吗/wifi/有没有wifi/我能连接你们家无线网吗/你能告诉我你们家无线网是什么吗/可不可以告诉我你们店的无线/你们的无线网是什么/哪个是你们店的无线网/你们店有没有wifi/有网啊/没有网/有没有网啊/手机没流量了/没流量怎么办/你们这个要下软件啊/用流量下载太奢侈了/还要下载软件啊/手机没流量啊/手机没流量怎么下载/没流量咋弄/没流量咋办/我手机木有流量呀/手机没流量咋办/我手机流量已经用完了/这个软件要这么多流量啊/我没有流量了/流量不够/没流量啊/流量用光了/流量不够用啊/流量不够了/流量很贵的/怎么连你们的无线/怎么连接你们的无线网/流量不够/数据流量不够了/你们软件太大了，浪费流量/流量可是很贵的，有无线网吗/流量没有了/已经没有手机流量了/手机流量用完了怎么下载/手机流量用完了如何下载/没有手机流量如何下载/需要太多流量，我的不够/流量使用太多，已经不多了/如何连接你们的无线网/怎么才能连接你们的无线网/可以告诉我如何连接吗/怎么连接/流量没有了如何连接/流量使用差不多了/手机已使用超出流量/流量已使用完了/你们银行有wifi吗/把银行wifi告诉我/告诉我银行wifi/你们银行wifi是多少/有免费的wifi吗/免费的wif/i银行wifi说一下/你知道银行wifi吗/银行wifi多少/你们这有免费wifi吗/能告诉我wifi吗/可以免费上网吗/上网可以免费吗/有免费无线吗/免费无线有吗/能告诉我免费无线吗/你知道你们免费无线吗/你知道你们银行wifi吗/把免费无线告诉我/把银行wifi告诉我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我怎么连不上无线网/我连不上无线网/我连不上/连不上无线网啊/无线网连不上/连不上无线网怎么办/就是连不上/怎么连不上无线网啊/无线网是坏的/怎么连接不上呢/你们的无线网我怎么连接不上/连不上网啊/网连不上/无线网是坏的/无线网无法使用/无线网用不成/无线网用不了/无线网无法连接/无线/无线网怎么连接不上啊/我连接你们的无线网怎么连接不上/连接失败怎么办/无线网连接失败/无线网没连上/没连上无线网/我连接你们的无线网怎么连接不上/连接失败怎么办/你们的无线网是不是坏了/无线网连接失败/无线网没连上/密码错误/连不上/无线用不了/无线怎么用不了啊/我连接你们无线怎么连接不上/为什么无线网连不上啊/为什么无线网连接失败呢/为什么无线网无法连接呀/为什么无线网没连上/密码怎么会显示错误呢/为什么密码提示错误呢/无线网为什么连不上/无线网怎么连接失败呢/连接不成功/没连接成功/怎么没连接成功/显示没成功/显示失败/怎么连接失败/怎么会连接失败连接显示失败/连接没成功/显示连接失败/显示没连接成功/显示连接不成功/为什么会显示连接失败/为什么会连接不成功/为什么无法连接/为什么连接失败/怎么会连接失败呢/怎么会显示连接失败呢/连接不上怎么办/连接不上是什么问题/为啥会连接不上/连接不上找谁反应/怎么一直连接不上啊/帮我看看连接不上是什么原因/连接不上你帮我看看/连接显示不成功怎么办/连接显示失败怎么办/帮我看看怎么会显示连接失败/帮我看看怎么会显示连接不成功/无线网连接不成/无线网连不上/无线网连不了怎么办/无线网连不上怎么办/无线网连不上/无线网连不上怎么办/无线网连不上怎么回事/无线网连不上什么原因/无线网连不上是什么意思/无线网连不上是怎么造成的/无线网显示连不上/无线网提示连不上/无线网怎么连不上/无线网提示连不上/无线网提示连不上是什么意思/无线网提示连不上是什么原因/无线网提示连不上是什么情况/无线网显示连不上是什么造成的/无线网连接失败是怎么造成的/无线网多次失败/无线网多次显示失败/无线网多次提示失败/无线网多次连接失败怎么办/无线网总是显示失败/无线网总是提示失败什么原因/无线网频繁提示失败/帮我看看为什么无线网会显示失败/帮我看看为什么无线网会提示失败/帮我看看无线网连不上这么操作/帮我看看无线网连不上怎么解决/帮我看看无线网连不上怎么处理/无线网总是连接失败怎么解决/无线网总是连接失败怎么操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/wifi未连接啊</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>我用什么扫描二维码/二维码用什么扫的/用什么扫描你们的二维码/你们的二维码可以用什么扫/用什么软件扫描你们店的二维码/你们店里面的二维码要用什么扫描/用什么扫/拿什么扫/用这个扫吗/用什么扫二维码/拿什么扫二维码/用这个扫二维码吗/拿什么东西扫/拿什么东西扫二维码/怎么用手机扫二维码/扫过二维码我怎么使用/二维码扫过就可以使用吗/怎么扫/请问用手机扫二维码吗/如何用手机扫二维码/手机就可以扫二维码吗/用手机吗/告诉我手机怎么扫码/如何才能扫码/怎样才能扫二维码/什么都可以扫二维码/规定用什么扫码吗/什么软件可以扫码/如何使用手机扫码/如何扫码/怎么扫码/什么都可以扫码吗/请问用什么扫码/请问是用手机扫码吗/请问用手机怎么扫码/扫码可以直接用手机吗/二维码可以用什么扫/我没的微信/没有微信可以扫吗/一定要用微信吗/没有微信怎么办/QQ可以扫吗/用QQ扫可以吗/扫不了没有微信/我用QQ扫可以吗/我没有微信软件/我没有下载微信/我不用微信/微信我没下载/用微信扫可以吗/用QQ扫可以吗/QQ扫有用吗/用支付宝扫可以吗/扫支付宝可以吗/我只有支付宝/支付宝扫一下有用吗/支付宝扫一扫有用吗/淘宝扫一扫有用吗/我只有淘宝/用支付宝扫有用吗/其他软件可以扫吗/用支付宝扫有用吗/用淘宝扫有用吗/其他扫一扫可以吗/QQ扫可以吗/支付宝扫可以吗/淘宝扫可以吗/可以用淘宝吗/可以用QQ吗/可以用支付宝吗/能用QQ扫吗/能用QQ扫二维码吗/能用支付宝扫二维码吗/能用支付宝扫吗/能用淘宝扫吗/能用淘宝扫二维吗/淘宝扫二维码有用吗/支付宝扫二维码有用吗/QQ扫二维码有用吗/怎么扫码/扫码用什么/怎么扫码/扫码需要怎么扫/什么可以扫码/什么是用来扫码的？/用什么扫码啊？/我要用什么来扫码？/扫码可以用什么？/用什么可以扫码啊？/扫码用什么扫？/用什么扫码？/扫码用什么？/什么可以扫码？/二维码用什么扫的/用什么扫描你们的二维码/你们的二维码可以用什么扫/用什么软件扫描你们店的二维码/你们店里面的二维码要用什么扫描啊//什么都可以扫码吗？/随便什么软件都可以扫码吗/扫码有什么特别的讲究吗/有什么限制吗？/可以随便扫码？/我想用支付宝扫码可以吗？/我想用支付宝扫一下可以吗？用微信扫一扫是可以的吧？/不同软件扫出来的东西是一样的吧？/用不同软件扫出来会有区别吗？/怎么扫码？/怎么可以扫二维码？/二维码怎么扫？/怎么扫？/怎么扫描二维码啊？/二维码怎么扫描？/用什么扫?/用什么扫码啊？/扫码用什么？/扫码用啥？/啥东西可以扫码？</t>
     </r>
@@ -966,12 +937,67 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>还要下载好麻烦呀/好麻烦呀/你来教教我/教一下/这么麻烦，告诉我怎么下载/你会吗/这么麻烦呀/麻烦死了/好烦呀/烦死了/麻烦死了/真麻烦/你帮帮我/怎么这么麻烦/够烦的/够麻烦的/好麻烦/你能教教我吗/你可以教一下我吗/能教教我吗/这么麻烦你帮我一下/这么麻烦你教教我/这么麻烦你能帮帮我吗/怎么这么麻烦呀/怎么这么麻烦呢/真够麻烦的/下载真的好麻烦/还要下载麻烦死了/还要下载好麻烦/还要下载够麻烦的/还要下载真麻烦/还要下载麻烦死了/还要下载烦死了/还要下载这么麻烦呢/我不要下载太麻烦了/下载麻烦死了我不要/下载的步骤是什么/请告诉我下下载的步骤/下载的步骤难吗/下载的步骤烦吗/麻烦提供下下载的步骤/下载的步骤能麻烦提供下给我嘛/我觉得下载很麻烦的/下载的步骤你能教教我吗/麻烦你教下我下载的步骤吧/下载的步骤能麻烦你教下我吗/下载麻烦吗需要什么步骤/下载麻烦吗需要怎么操作/下载麻烦吗要什么操作/输入手机号和验证码就可以下载吗/下载好繁琐啊/这个太繁琐了我不会/这个好繁琐啊怎么操作/怎么这么繁琐啊/可以说的仔细一点吗/可以把下载的步骤仔细说一下吗/这个下载好复杂啊/这个下载也太复杂了吧/这么复杂我不会操作/这么复杂我不知道怎么下载/这么复杂太麻烦了/这么繁琐太麻烦了/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你们有WiFi下载么/这么大，有无线网么/银行有无线网么/好大啊/你们银行有无线吗/怎么连无线啊/有无线吗/有wifi吗/怎么连wifi/你们银行wifi是什么/连个无线/怎么连无线/我要连无线/你们WiFi密码是多少怎么连接wifi/你们有没有无线网/你们的无线网是什么啊/无线网密码是什么/可有无线网吗/有没有wifi啊/wifi是什么/wifi密码是什么/能告诉我你们的无线网吗/可以告诉我你们无线网是哪个吗/我能连一下你们的无线网吗/可以连你们的无线网吗/这儿有无线网吗/这儿的无线网密码是啥/哪里可以免费下载/你们这里有wifi吗/你们有免费网络吗/wifi/有没有wifi/我能连接你们家无线网吗/你能告诉我你们家无线网是什么吗/可不可以告诉我你们店的无线/你们的无线网是什么/哪个是你们店的无线网/你们店有没有wifi/有网啊/没有网/有没有网啊/手机没流量了/没流量怎么办/你们这个要下软件啊/用流量下载太奢侈了/还要下载软件啊/手机没流量啊/手机没流量怎么下载/没流量咋弄/没流量咋办/我手机木有流量呀/手机没流量咋办/我手机流量已经用完了/这个软件要这么多流量啊/我没有流量了/流量不够/没流量啊/流量用光了/流量不够用啊/流量不够了/流量很贵的/怎么连你们的无线/怎么连接你们的无线网/流量不够/数据流量不够了/你们软件太大了，浪费流量/流量可是很贵的，有无线网吗/流量没有了/已经没有手机流量了/手机流量用完了怎么下载/手机流量用完了如何下载/没有手机流量如何下载/需要太多流量，我的不够/流量使用太多，已经不多了/如何连接你们的无线网/怎么才能连接你们的无线网/可以告诉我如何连接吗/怎么连接/流量没有了如何连接/流量使用差不多了/手机已使用超出流量/流量已使用完了/你们银行有wifi吗/把银行wifi告诉我/告诉我银行wifi/你们银行wifi是多少/有免费的wifi吗/免费的wif/i银行wifi说一下/你知道银行wifi吗/银行wifi多少/你们这有免费wifi吗/能告诉我wifi吗/可以免费上网吗/上网可以免费吗/有免费无线吗/免费无线有吗/能告诉我免费无线吗/你知道你们免费无线吗/你知道你们银行wifi吗/把免费无线告诉我/把银行wifi告诉我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/wifi</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我怎么连不上无线网/我连不上无线网/我连不上/连不上无线网啊/无线网连不上/连不上无线网怎么办/就是连不上/怎么连不上无线网啊/无线网是坏的/怎么连接不上呢/你们的无线网我怎么连接不上/连不上网啊/网连不上/无线网是坏的/无线网无法使用/无线网用不成/无线网用不了/无线网无法连接/无线/无线网怎么连接不上啊/我连接你们的无线网怎么连接不上/连接失败怎么办/无线网连接失败/无线网没连上/没连上无线网/我连接你们的无线网怎么连接不上/连接失败怎么办/你们的无线网是不是坏了/无线网连接失败/无线网没连上/密码错误/连不上/无线用不了/无线怎么用不了啊/我连接你们无线怎么连接不上/为什么无线网连不上啊/为什么无线网连接失败呢/为什么无线网无法连接呀/为什么无线网没连上/密码怎么会显示错误呢/为什么密码提示错误呢/无线网为什么连不上/无线网怎么连接失败呢/连接不成功/没连接成功/怎么没连接成功/显示没成功/显示失败/怎么连接失败/怎么会连接失败连接显示失败/连接没成功/显示连接失败/显示没连接成功/显示连接不成功/为什么会显示连接失败/为什么会连接不成功/为什么无法连接/为什么连接失败/怎么会连接失败呢/怎么会显示连接失败呢/连接不上怎么办/连接不上是什么问题/为啥会连接不上/连接不上找谁反应/怎么一直连接不上啊/帮我看看连接不上是什么原因/连接不上你帮我看看/连接显示不成功怎么办/连接显示失败怎么办/帮我看看怎么会显示连接失败/帮我看看怎么会显示连接不成功/无线网连接不成/无线网连不上/无线网连不了怎么办/无线网连不上怎么办/无线网连不上/无线网连不上怎么办/无线网连不上怎么回事/无线网连不上什么原因/无线网连不上是什么意思/无线网连不上是怎么造成的/无线网显示连不上/无线网提示连不上/无线网怎么连不上/无线网提示连不上/无线网提示连不上是什么意思/无线网提示连不上是什么原因/无线网提示连不上是什么情况/无线网显示连不上是什么造成的/无线网连接失败是怎么造成的/无线网多次失败/无线网多次显示失败/无线网多次提示失败/无线网多次连接失败怎么办/无线网总是显示失败/无线网总是提示失败什么原因/无线网频繁提示失败/帮我看看为什么无线网会显示失败/帮我看看为什么无线网会提示失败/帮我看看无线网连不上这么操作/帮我看看无线网连不上怎么解决/帮我看看无线网连不上怎么处理/无线网总是连接失败怎么解决/无线网总是连接失败怎么操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/wifi未连接啊/那没网就收起来了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这是什么二维码/这个二维码是什么/是什么/这是什么啊/扫了能干嘛/二维码是做什么的/二维码是干嘛的/二维码有什么用/这是什么二维码/这是手机银行吗/二维码有什么用处/二维码可以帮助到什么/你说说这是什么/储储是这是什么二维码/储储是这什么/机器人这是什么二维码/机器人这是什么//你给我看的是什么/储储你给我看的是什么/你脸上的是什么/你的脸怎么了/你的脸上怎么是二维码/二维码怎么在你脸上/你怎么把二维码亮出来了/储储你脸上的是什么/怎么你脸上有二维码/怎么二维码在你脸上/你怎么会有二维码/储储你怎么有二维码/你脸上是什么二维码/你脸上怎么有二维码/二维码怎么在你脸上/储储脸上怎么有二维码/二维码怎么在储储脸上/这是什么码/这个码是什么/这个二维码是干嘛的/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这是什么</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,11 +1565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" style="21" customWidth="1"/>
     <col min="3" max="3" width="52.75" style="21" customWidth="1"/>
@@ -1552,7 +1578,7 @@
     <col min="6" max="6" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1572,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="193.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>169</v>
       </c>
@@ -1583,14 +1609,14 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="101.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>169</v>
       </c>
@@ -1601,36 +1627,36 @@
         <v>17</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="278.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="278.25" customHeight="1">
       <c r="A4" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="243.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="243.75" customHeight="1">
       <c r="A5" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
@@ -1642,97 +1668,97 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="226.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="226.5" customHeight="1">
       <c r="A6" t="s">
         <v>169</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="195" customHeight="1">
       <c r="A7" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="178.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="178.5" customHeight="1">
       <c r="A8" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="119.25" customHeight="1">
       <c r="A9" t="s">
         <v>169</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="180" customHeight="1">
       <c r="A10" t="s">
         <v>169</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="288" customHeight="1">
       <c r="A11" t="s">
         <v>169</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1744,139 +1770,139 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="134.25" customHeight="1">
       <c r="A12" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="143.25" customHeight="1">
       <c r="A13" t="s">
         <v>169</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="126" customHeight="1">
       <c r="A14" t="s">
         <v>169</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="34" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="34" customFormat="1" ht="177" customHeight="1">
       <c r="A15" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:6" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="184.5" customHeight="1">
       <c r="A16" t="s">
         <v>169</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="169.5" customHeight="1">
       <c r="A17" t="s">
         <v>169</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="214.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="214.5" customHeight="1">
       <c r="A18" t="s">
         <v>169</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="108">
       <c r="A19" t="s">
         <v>169</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>29</v>
@@ -1886,18 +1912,18 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="202.5">
       <c r="A20" t="s">
         <v>169</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>25</v>
@@ -1907,18 +1933,18 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="81" customHeight="1">
       <c r="A21" t="s">
         <v>169</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>30</v>
@@ -1928,18 +1954,18 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="54">
       <c r="A22" t="s">
         <v>169</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>30</v>
@@ -1949,61 +1975,61 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" s="34" customFormat="1" ht="227.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" s="34" customFormat="1" ht="227.25" customHeight="1">
       <c r="A23" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="1:7" s="34" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" s="34" customFormat="1" ht="149.25" customHeight="1">
       <c r="A24" t="s">
         <v>169</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="40.5">
       <c r="A25" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="45" t="s">
         <v>211</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>213</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="D26" s="16" t="s">
         <v>22</v>
       </c>
@@ -2023,7 +2049,7 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
@@ -2032,7 +2058,7 @@
     <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="39" t="s">
         <v>82</v>
       </c>
@@ -2052,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="108.75" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>168</v>
       </c>
@@ -2069,7 +2095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="108.75" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>168</v>
       </c>
@@ -2086,7 +2112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="108.75" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>168</v>
       </c>
@@ -2103,7 +2129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="108.75" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>168</v>
       </c>
@@ -2121,7 +2147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="108.75" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>168</v>
       </c>
@@ -2138,7 +2164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="108.75" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>168</v>
       </c>
@@ -2155,7 +2181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="108.75" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>168</v>
       </c>
@@ -2172,7 +2198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="108.75" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>168</v>
       </c>
@@ -2189,7 +2215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="108.75" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>168</v>
       </c>
@@ -2206,7 +2232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="108.75" customHeight="1">
       <c r="A11" s="39" t="s">
         <v>168</v>
       </c>
@@ -2223,7 +2249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="108.75" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>168</v>
       </c>
@@ -2240,7 +2266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="108.75" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>168</v>
       </c>
@@ -2257,7 +2283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="108.75" customHeight="1">
       <c r="A14" s="39" t="s">
         <v>168</v>
       </c>
@@ -2274,7 +2300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="108.75" customHeight="1">
       <c r="A15" s="39" t="s">
         <v>168</v>
       </c>
@@ -2291,7 +2317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="108.75" customHeight="1">
       <c r="A16" s="39" t="s">
         <v>168</v>
       </c>
@@ -2308,7 +2334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="108.75" customHeight="1">
       <c r="A17" s="39" t="s">
         <v>168</v>
       </c>
@@ -2325,7 +2351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="108.75" customHeight="1">
       <c r="A18" s="39" t="s">
         <v>168</v>
       </c>
@@ -2342,7 +2368,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="108.75" customHeight="1">
       <c r="A19" s="39" t="s">
         <v>168</v>
       </c>
@@ -2360,7 +2386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="108.75" customHeight="1">
       <c r="A20" s="39" t="s">
         <v>168</v>
       </c>
@@ -2377,7 +2403,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="108.75" customHeight="1">
       <c r="A21" s="39" t="s">
         <v>168</v>
       </c>
@@ -2394,7 +2420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="108.75" customHeight="1">
       <c r="A22" s="39" t="s">
         <v>168</v>
       </c>
@@ -2411,7 +2437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="108.75" customHeight="1">
       <c r="A23" s="39" t="s">
         <v>168</v>
       </c>
@@ -2428,7 +2454,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="108.75" customHeight="1">
       <c r="A24" s="39" t="s">
         <v>168</v>
       </c>
@@ -2445,7 +2471,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="108.75" customHeight="1">
       <c r="A25" s="39" t="s">
         <v>168</v>
       </c>
@@ -2462,7 +2488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="108.75" customHeight="1">
       <c r="A26" s="39" t="s">
         <v>168</v>
       </c>
@@ -2482,7 +2508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="108.75" customHeight="1">
       <c r="A27" s="39" t="s">
         <v>168</v>
       </c>
@@ -2499,7 +2525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="108.75" customHeight="1">
       <c r="A28" s="39" t="s">
         <v>168</v>
       </c>
@@ -2516,7 +2542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="108.75" customHeight="1">
       <c r="A29" s="39" t="s">
         <v>168</v>
       </c>
@@ -2533,7 +2559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="108.75" customHeight="1">
       <c r="A30" s="39" t="s">
         <v>168</v>
       </c>
@@ -2550,7 +2576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="108.75" customHeight="1">
       <c r="A31" s="39" t="s">
         <v>168</v>
       </c>
@@ -2567,7 +2593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="108.75" customHeight="1">
       <c r="A32" s="39" t="s">
         <v>168</v>
       </c>
@@ -2584,7 +2610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="108.75" customHeight="1">
       <c r="A33" s="39" t="s">
         <v>168</v>
       </c>
@@ -2601,7 +2627,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="108.75" customHeight="1">
       <c r="A34" s="39" t="s">
         <v>168</v>
       </c>
@@ -2618,7 +2644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="108.75" customHeight="1">
       <c r="A35" s="39" t="s">
         <v>168</v>
       </c>
@@ -2635,7 +2661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="108.75" customHeight="1">
       <c r="A36" s="39" t="s">
         <v>168</v>
       </c>
@@ -2652,7 +2678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="108.75" customHeight="1">
       <c r="A37" s="39" t="s">
         <v>168</v>
       </c>
@@ -2669,7 +2695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="108.75" customHeight="1">
       <c r="A38" s="39" t="s">
         <v>168</v>
       </c>
@@ -2686,7 +2712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="108.75" customHeight="1">
       <c r="A39" s="39" t="s">
         <v>168</v>
       </c>
@@ -2703,7 +2729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="108.75" customHeight="1">
       <c r="A40" s="39" t="s">
         <v>168</v>
       </c>
@@ -2720,7 +2746,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="108.75" customHeight="1">
       <c r="A41" s="39" t="s">
         <v>168</v>
       </c>
@@ -2737,7 +2763,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="108.75" customHeight="1">
       <c r="A42" s="39" t="s">
         <v>168</v>
       </c>
@@ -2754,7 +2780,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="108.75" customHeight="1">
       <c r="A43" s="39" t="s">
         <v>168</v>
       </c>
@@ -2771,18 +2797,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="27">
       <c r="A44" s="39" t="s">
         <v>168</v>
       </c>
       <c r="B44" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>214</v>
-      </c>
-      <c r="C44" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>216</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>27</v>

--- a/update_data/data/bank_psbc/qa/邮储问答.xlsx
+++ b/update_data/data/bank_psbc/qa/邮储问答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="45" windowWidth="9630" windowHeight="11685"/>
+    <workbookView xWindow="9585" yWindow="105" windowWidth="9630" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -693,10 +693,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我没带身份证怎么办/身份证在家里/身份证不在身上/忘带身份证了/身份证没带/没带身份证/忘记带身份证了/身份证忘拿了/身份证忘家里了/我的身份证没带/忘了/我忘拿身份证了怎么办？/我身份证忘拿了怎么办？/我忘记拿身份证了/我身份证忘记拿了/我身上没有身份证/我身份证找不到了/身份证忘在家里了/身份证不在身上/我找不到我的身份证了/我身份证丢了/我身份证在家呢/我的身份证在家呢/身份证忘在家里了，怎么办/我的身份证没带怎么办/我没带身份证/我的身份证丢了怎么办/我的身份证找不到了/不知道身份证放哪了/我找不找身份证了/我的身份证找不着了/没有银行看办不了吗/没有身份证不能办吗/没有身份证就不行吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我没带银行卡怎么办</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -905,23 +901,6 @@
   </si>
   <si>
     <r>
-      <t>二维码在哪/扫哪里的二维码/没有看到二维码啊/哪有二维码/在哪呢，二维码/二维码在哪里/二维码在哪扫/二维码没看到呀/二维码哪呢/二维码哪有/没看到二维码/你说的二维码在哪/怎么没有看到二维码/可以告诉我二维码在哪吗/没有找到二维码/扫哪里的二维码/怎么没有二维码/没有看到你说的二维码/有二维码吗/二维码在何处/何处有二维码呢/没有寻找到二维码/请问二维码在何处/请问二维码看到了吗/请告诉一下二维码在哪里/你说的二维码没有找到/你说的二维码在哪呢/二维码哪里有啊/怎么没有找到二维码/二维码有吗/有二维码吗/在哪里扫二维码/扫哪里的二维码/何处有二维码可以扫/扫何处的二维码/要扫哪里的二维码/没看见二维码/二维码没看见/我怎么没看见二维码/二维码我怎么没看见/哪里有二维码/你知道哪里有二维码/二维码哪里有你知道吗/请告诉我二维码在哪里/二维码在哪里请告诉我/请告诉我二维码/麻烦告诉我二维在哪里/机器人告诉我二维码/储储告诉我二维码/储储二维码/储储你的二维码呢/储储推出你的二维码/你有二维码吗/你的二维码呢/把你二维码推出来/推出你的二维码/机器人推出你的二维码/亮出你的二维码/我要扫扫你的二维码/你的二维码让我扫扫/把你的二维码让我扫扫/听说你有二维码/二维码你有吗/我想扫你的二维码有吗/手机银行在哪里/你有手机银行吗/储储你有手机银行吗/我要扫二维码/我要扫码/扫码/扫二维码/二维码露出了/二维码给我看/二维码呢/我要二维码/我扫码/我来扫二维码/我要扫邮储手机银行二维码/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二维码有吗/扫你二维码</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>我用什么扫描二维码/二维码用什么扫的/用什么扫描你们的二维码/你们的二维码可以用什么扫/用什么软件扫描你们店的二维码/你们店里面的二维码要用什么扫描/用什么扫/拿什么扫/用这个扫吗/用什么扫二维码/拿什么扫二维码/用这个扫二维码吗/拿什么东西扫/拿什么东西扫二维码/怎么用手机扫二维码/扫过二维码我怎么使用/二维码扫过就可以使用吗/怎么扫/请问用手机扫二维码吗/如何用手机扫二维码/手机就可以扫二维码吗/用手机吗/告诉我手机怎么扫码/如何才能扫码/怎样才能扫二维码/什么都可以扫二维码/规定用什么扫码吗/什么软件可以扫码/如何使用手机扫码/如何扫码/怎么扫码/什么都可以扫码吗/请问用什么扫码/请问是用手机扫码吗/请问用手机怎么扫码/扫码可以直接用手机吗/二维码可以用什么扫/我没的微信/没有微信可以扫吗/一定要用微信吗/没有微信怎么办/QQ可以扫吗/用QQ扫可以吗/扫不了没有微信/我用QQ扫可以吗/我没有微信软件/我没有下载微信/我不用微信/微信我没下载/用微信扫可以吗/用QQ扫可以吗/QQ扫有用吗/用支付宝扫可以吗/扫支付宝可以吗/我只有支付宝/支付宝扫一下有用吗/支付宝扫一扫有用吗/淘宝扫一扫有用吗/我只有淘宝/用支付宝扫有用吗/其他软件可以扫吗/用支付宝扫有用吗/用淘宝扫有用吗/其他扫一扫可以吗/QQ扫可以吗/支付宝扫可以吗/淘宝扫可以吗/可以用淘宝吗/可以用QQ吗/可以用支付宝吗/能用QQ扫吗/能用QQ扫二维码吗/能用支付宝扫二维码吗/能用支付宝扫吗/能用淘宝扫吗/能用淘宝扫二维吗/淘宝扫二维码有用吗/支付宝扫二维码有用吗/QQ扫二维码有用吗/怎么扫码/扫码用什么/怎么扫码/扫码需要怎么扫/什么可以扫码/什么是用来扫码的？/用什么扫码啊？/我要用什么来扫码？/扫码可以用什么？/用什么可以扫码啊？/扫码用什么扫？/用什么扫码？/扫码用什么？/什么可以扫码？/二维码用什么扫的/用什么扫描你们的二维码/你们的二维码可以用什么扫/用什么软件扫描你们店的二维码/你们店里面的二维码要用什么扫描啊//什么都可以扫码吗？/随便什么软件都可以扫码吗/扫码有什么特别的讲究吗/有什么限制吗？/可以随便扫码？/我想用支付宝扫码可以吗？/我想用支付宝扫一下可以吗？用微信扫一扫是可以的吧？/不同软件扫出来的东西是一样的吧？/用不同软件扫出来会有区别吗？/怎么扫码？/怎么可以扫二维码？/二维码怎么扫？/怎么扫？/怎么扫描二维码啊？/二维码怎么扫描？/用什么扫?/用什么扫码啊？/扫码用什么？/扫码用啥？/啥东西可以扫码？</t>
     </r>
     <r>
@@ -939,23 +918,6 @@
   </si>
   <si>
     <t>还要下载好麻烦呀/好麻烦呀/你来教教我/教一下/这么麻烦，告诉我怎么下载/你会吗/这么麻烦呀/麻烦死了/好烦呀/烦死了/麻烦死了/真麻烦/你帮帮我/怎么这么麻烦/够烦的/够麻烦的/好麻烦/你能教教我吗/你可以教一下我吗/能教教我吗/这么麻烦你帮我一下/这么麻烦你教教我/这么麻烦你能帮帮我吗/怎么这么麻烦呀/怎么这么麻烦呢/真够麻烦的/下载真的好麻烦/还要下载麻烦死了/还要下载好麻烦/还要下载够麻烦的/还要下载真麻烦/还要下载麻烦死了/还要下载烦死了/还要下载这么麻烦呢/我不要下载太麻烦了/下载麻烦死了我不要/下载的步骤是什么/请告诉我下下载的步骤/下载的步骤难吗/下载的步骤烦吗/麻烦提供下下载的步骤/下载的步骤能麻烦提供下给我嘛/我觉得下载很麻烦的/下载的步骤你能教教我吗/麻烦你教下我下载的步骤吧/下载的步骤能麻烦你教下我吗/下载麻烦吗需要什么步骤/下载麻烦吗需要怎么操作/下载麻烦吗要什么操作/输入手机号和验证码就可以下载吗/下载好繁琐啊/这个太繁琐了我不会/这个好繁琐啊怎么操作/怎么这么繁琐啊/可以说的仔细一点吗/可以把下载的步骤仔细说一下吗/这个下载好复杂啊/这个下载也太复杂了吧/这么复杂我不会操作/这么复杂我不知道怎么下载/这么复杂太麻烦了/这么繁琐太麻烦了/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>你们有WiFi下载么/这么大，有无线网么/银行有无线网么/好大啊/你们银行有无线吗/怎么连无线啊/有无线吗/有wifi吗/怎么连wifi/你们银行wifi是什么/连个无线/怎么连无线/我要连无线/你们WiFi密码是多少怎么连接wifi/你们有没有无线网/你们的无线网是什么啊/无线网密码是什么/可有无线网吗/有没有wifi啊/wifi是什么/wifi密码是什么/能告诉我你们的无线网吗/可以告诉我你们无线网是哪个吗/我能连一下你们的无线网吗/可以连你们的无线网吗/这儿有无线网吗/这儿的无线网密码是啥/哪里可以免费下载/你们这里有wifi吗/你们有免费网络吗/wifi/有没有wifi/我能连接你们家无线网吗/你能告诉我你们家无线网是什么吗/可不可以告诉我你们店的无线/你们的无线网是什么/哪个是你们店的无线网/你们店有没有wifi/有网啊/没有网/有没有网啊/手机没流量了/没流量怎么办/你们这个要下软件啊/用流量下载太奢侈了/还要下载软件啊/手机没流量啊/手机没流量怎么下载/没流量咋弄/没流量咋办/我手机木有流量呀/手机没流量咋办/我手机流量已经用完了/这个软件要这么多流量啊/我没有流量了/流量不够/没流量啊/流量用光了/流量不够用啊/流量不够了/流量很贵的/怎么连你们的无线/怎么连接你们的无线网/流量不够/数据流量不够了/你们软件太大了，浪费流量/流量可是很贵的，有无线网吗/流量没有了/已经没有手机流量了/手机流量用完了怎么下载/手机流量用完了如何下载/没有手机流量如何下载/需要太多流量，我的不够/流量使用太多，已经不多了/如何连接你们的无线网/怎么才能连接你们的无线网/可以告诉我如何连接吗/怎么连接/流量没有了如何连接/流量使用差不多了/手机已使用超出流量/流量已使用完了/你们银行有wifi吗/把银行wifi告诉我/告诉我银行wifi/你们银行wifi是多少/有免费的wifi吗/免费的wif/i银行wifi说一下/你知道银行wifi吗/银行wifi多少/你们这有免费wifi吗/能告诉我wifi吗/可以免费上网吗/上网可以免费吗/有免费无线吗/免费无线有吗/能告诉我免费无线吗/你知道你们免费无线吗/你知道你们银行wifi吗/把免费无线告诉我/把银行wifi告诉我</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/wifi</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -992,12 +954,63 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>我没带身份证怎么办/身份证在家里/身份证不在身上/忘带身份证了/身份证没带/没带身份证/忘记带身份证了/身份证忘拿了/身份证忘家里了/我的身份证没带/忘了/我忘拿身份证了怎么办？/我身份证忘拿了怎么办？/我忘记拿身份证了/我身份证忘记拿了/我身上没有身份证/我身份证找不到了/身份证忘在家里了/身份证不在身上/我找不到我的身份证了/我身份证丢了/我身份证在家呢/我的身份证在家呢/身份证忘在家里了，怎么办/我的身份证没带怎么办/我没带身份证/我的身份证丢了怎么办/我的身份证找不到了/不知道身份证放哪了/我找不找身份证了/我的身份证找不着了/没有银行看办不了吗/没有身份证不能办吗/没有身份证就不行吗/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那我没有身份证能不能办啊/没带身份证可以办吗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>二维码在哪/扫哪里的二维码/没有看到二维码啊/哪有二维码/在哪呢，二维码/二维码在哪里/二维码在哪扫/二维码没看到呀/二维码哪呢/二维码哪有/没看到二维码/你说的二维码在哪/怎么没有看到二维码/可以告诉我二维码在哪吗/没有找到二维码/扫哪里的二维码/怎么没有二维码/没有看到你说的二维码/有二维码吗/二维码在何处/何处有二维码呢/没有寻找到二维码/请问二维码在何处/请问二维码看到了吗/请告诉一下二维码在哪里/你说的二维码没有找到/你说的二维码在哪呢/二维码哪里有啊/怎么没有找到二维码/二维码有吗/有二维码吗/在哪里扫二维码/扫哪里的二维码/何处有二维码可以扫/扫何处的二维码/要扫哪里的二维码/没看见二维码/二维码没看见/我怎么没看见二维码/二维码我怎么没看见/哪里有二维码/你知道哪里有二维码/二维码哪里有你知道吗/请告诉我二维码在哪里/二维码在哪里请告诉我/请告诉我二维码/麻烦告诉我二维在哪里/机器人告诉我二维码/储储告诉我二维码/储储二维码/储储你的二维码呢/储储推出你的二维码/你有二维码吗/你的二维码呢/把你二维码推出来/推出你的二维码/机器人推出你的二维码/亮出你的二维码/我要扫扫你的二维码/你的二维码让我扫扫/把你的二维码让我扫扫/听说你有二维码/二维码你有吗/我想扫你的二维码有吗/手机银行在哪里/你有手机银行吗/储储你有手机银行吗/我要扫二维码/我要扫码/扫码/扫二维码/二维码露出了/二维码给我看/二维码呢/我要二维码/我扫码/我来扫二维码/我要扫邮储手机银行二维码/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二维码有吗/扫你二维码/你二维码呢</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你们有WiFi下载么/这么大，有无线网么/银行有无线网么/好大啊/你们银行有无线吗/怎么连无线啊/有无线吗/有wifi吗/怎么连wifi/你们银行wifi是什么/连个无线/怎么连无线/我要连无线/你们WiFi密码是多少怎么连接wifi/你们有没有无线网/你们的无线网是什么啊/无线网密码是什么/可有无线网吗/有没有wifi啊/wifi是什么/wifi密码是什么/能告诉我你们的无线网吗/可以告诉我你们无线网是哪个吗/我能连一下你们的无线网吗/可以连你们的无线网吗/这儿有无线网吗/这儿的无线网密码是啥/哪里可以免费下载/你们这里有wifi吗/你们有免费网络吗/wifi/有没有wifi/我能连接你们家无线网吗/你能告诉我你们家无线网是什么吗/可不可以告诉我你们店的无线/你们的无线网是什么/哪个是你们店的无线网/你们店有没有wifi/有网啊/没有网/有没有网啊/手机没流量了/没流量怎么办/你们这个要下软件啊/用流量下载太奢侈了/还要下载软件啊/手机没流量啊/手机没流量怎么下载/没流量咋弄/没流量咋办/我手机木有流量呀/手机没流量咋办/我手机流量已经用完了/这个软件要这么多流量啊/我没有流量了/流量不够/没流量啊/流量用光了/流量不够用啊/流量不够了/流量很贵的/怎么连你们的无线/怎么连接你们的无线网/流量不够/数据流量不够了/你们软件太大了，浪费流量/流量可是很贵的，有无线网吗/流量没有了/已经没有手机流量了/手机流量用完了怎么下载/手机流量用完了如何下载/没有手机流量如何下载/需要太多流量，我的不够/流量使用太多，已经不多了/如何连接你们的无线网/怎么才能连接你们的无线网/可以告诉我如何连接吗/怎么连接/流量没有了如何连接/流量使用差不多了/手机已使用超出流量/流量已使用完了/你们银行有wifi吗/把银行wifi告诉我/告诉我银行wifi/你们银行wifi是多少/有免费的wifi吗/免费的wif/i银行wifi说一下/你知道银行wifi吗/银行wifi多少/你们这有免费wifi吗/能告诉我wifi吗/可以免费上网吗/上网可以免费吗/有免费无线吗/免费无线有吗/能告诉我免费无线吗/你知道你们免费无线吗/你知道你们银行wifi吗/把免费无线告诉我/把银行wifi告诉我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/wifi/我刚刚用的流量/还没流量发不出去要联网才好玩/你们这里面有没有无线网的啊/我手机都没流量了吗/有没有网络</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1092,14 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1566,7 +1587,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1600,16 +1621,16 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="193.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="35" t="s">
@@ -1618,16 +1639,16 @@
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="101.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="35" t="s">
@@ -1636,16 +1657,16 @@
     </row>
     <row r="4" spans="1:6" ht="278.25" customHeight="1">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>24</v>
@@ -1653,16 +1674,16 @@
     </row>
     <row r="5" spans="1:6" ht="243.75" customHeight="1">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>24</v>
@@ -1670,16 +1691,16 @@
     </row>
     <row r="6" spans="1:6" ht="226.5" customHeight="1">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>24</v>
@@ -1687,16 +1708,16 @@
     </row>
     <row r="7" spans="1:6" ht="195" customHeight="1">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>25</v>
@@ -1704,16 +1725,16 @@
     </row>
     <row r="8" spans="1:6" ht="178.5" customHeight="1">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>24</v>
@@ -1721,16 +1742,16 @@
     </row>
     <row r="9" spans="1:6" ht="119.25" customHeight="1">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>25</v>
@@ -1738,16 +1759,16 @@
     </row>
     <row r="10" spans="1:6" ht="180" customHeight="1">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>24</v>
@@ -1755,16 +1776,16 @@
     </row>
     <row r="11" spans="1:6" ht="288" customHeight="1">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>25</v>
@@ -1772,16 +1793,16 @@
     </row>
     <row r="12" spans="1:6" ht="134.25" customHeight="1">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>26</v>
@@ -1789,16 +1810,16 @@
     </row>
     <row r="13" spans="1:6" ht="143.25" customHeight="1">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>24</v>
@@ -1806,16 +1827,16 @@
     </row>
     <row r="14" spans="1:6" ht="126" customHeight="1">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>24</v>
@@ -1823,16 +1844,16 @@
     </row>
     <row r="15" spans="1:6" s="34" customFormat="1" ht="177" customHeight="1">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>31</v>
@@ -1841,16 +1862,16 @@
     </row>
     <row r="16" spans="1:6" ht="184.5" customHeight="1">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>24</v>
@@ -1858,16 +1879,16 @@
     </row>
     <row r="17" spans="1:7" ht="169.5" customHeight="1">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>27</v>
@@ -1875,16 +1896,16 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="214.5" customHeight="1">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="35" t="s">
@@ -1893,16 +1914,16 @@
     </row>
     <row r="19" spans="1:7" ht="108">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>29</v>
@@ -1914,16 +1935,16 @@
     </row>
     <row r="20" spans="1:7" ht="202.5">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>25</v>
@@ -1935,16 +1956,16 @@
     </row>
     <row r="21" spans="1:7" ht="81" customHeight="1">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>30</v>
@@ -1956,16 +1977,16 @@
     </row>
     <row r="22" spans="1:7" ht="54">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>30</v>
@@ -1977,16 +1998,16 @@
     </row>
     <row r="23" spans="1:7" s="34" customFormat="1" ht="227.25" customHeight="1">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>29</v>
@@ -1995,16 +2016,16 @@
     </row>
     <row r="24" spans="1:7" s="34" customFormat="1" ht="149.25" customHeight="1">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>29</v>
@@ -2016,13 +2037,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="D25" s="45" t="s">
         <v>210</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>211</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="33" t="s">
@@ -2045,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2080,7 +2101,7 @@
     </row>
     <row r="2" spans="1:6" ht="108.75" customHeight="1">
       <c r="A2" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>84</v>
@@ -2097,7 +2118,7 @@
     </row>
     <row r="3" spans="1:6" ht="108.75" customHeight="1">
       <c r="A3" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>86</v>
@@ -2114,7 +2135,7 @@
     </row>
     <row r="4" spans="1:6" ht="108.75" customHeight="1">
       <c r="A4" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>88</v>
@@ -2131,7 +2152,7 @@
     </row>
     <row r="5" spans="1:6" ht="108.75" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>90</v>
@@ -2149,7 +2170,7 @@
     </row>
     <row r="6" spans="1:6" ht="108.75" customHeight="1">
       <c r="A6" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>92</v>
@@ -2166,7 +2187,7 @@
     </row>
     <row r="7" spans="1:6" ht="108.75" customHeight="1">
       <c r="A7" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>94</v>
@@ -2183,7 +2204,7 @@
     </row>
     <row r="8" spans="1:6" ht="108.75" customHeight="1">
       <c r="A8" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>96</v>
@@ -2200,7 +2221,7 @@
     </row>
     <row r="9" spans="1:6" ht="108.75" customHeight="1">
       <c r="A9" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>98</v>
@@ -2217,7 +2238,7 @@
     </row>
     <row r="10" spans="1:6" ht="108.75" customHeight="1">
       <c r="A10" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>100</v>
@@ -2234,7 +2255,7 @@
     </row>
     <row r="11" spans="1:6" ht="108.75" customHeight="1">
       <c r="A11" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>102</v>
@@ -2251,7 +2272,7 @@
     </row>
     <row r="12" spans="1:6" ht="108.75" customHeight="1">
       <c r="A12" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>104</v>
@@ -2268,7 +2289,7 @@
     </row>
     <row r="13" spans="1:6" ht="108.75" customHeight="1">
       <c r="A13" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>106</v>
@@ -2285,7 +2306,7 @@
     </row>
     <row r="14" spans="1:6" ht="108.75" customHeight="1">
       <c r="A14" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>108</v>
@@ -2302,7 +2323,7 @@
     </row>
     <row r="15" spans="1:6" ht="108.75" customHeight="1">
       <c r="A15" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>110</v>
@@ -2319,7 +2340,7 @@
     </row>
     <row r="16" spans="1:6" ht="108.75" customHeight="1">
       <c r="A16" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>112</v>
@@ -2336,7 +2357,7 @@
     </row>
     <row r="17" spans="1:6" ht="108.75" customHeight="1">
       <c r="A17" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>114</v>
@@ -2353,7 +2374,7 @@
     </row>
     <row r="18" spans="1:6" ht="108.75" customHeight="1">
       <c r="A18" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>116</v>
@@ -2370,7 +2391,7 @@
     </row>
     <row r="19" spans="1:6" ht="108.75" customHeight="1">
       <c r="A19" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>118</v>
@@ -2388,7 +2409,7 @@
     </row>
     <row r="20" spans="1:6" ht="108.75" customHeight="1">
       <c r="A20" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>120</v>
@@ -2405,7 +2426,7 @@
     </row>
     <row r="21" spans="1:6" ht="108.75" customHeight="1">
       <c r="A21" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>122</v>
@@ -2422,7 +2443,7 @@
     </row>
     <row r="22" spans="1:6" ht="108.75" customHeight="1">
       <c r="A22" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>124</v>
@@ -2439,7 +2460,7 @@
     </row>
     <row r="23" spans="1:6" ht="108.75" customHeight="1">
       <c r="A23" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>126</v>
@@ -2456,7 +2477,7 @@
     </row>
     <row r="24" spans="1:6" ht="108.75" customHeight="1">
       <c r="A24" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>128</v>
@@ -2473,7 +2494,7 @@
     </row>
     <row r="25" spans="1:6" ht="108.75" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>130</v>
@@ -2490,7 +2511,7 @@
     </row>
     <row r="26" spans="1:6" ht="108.75" customHeight="1">
       <c r="A26" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>132</v>
@@ -2510,7 +2531,7 @@
     </row>
     <row r="27" spans="1:6" ht="108.75" customHeight="1">
       <c r="A27" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>134</v>
@@ -2527,7 +2548,7 @@
     </row>
     <row r="28" spans="1:6" ht="108.75" customHeight="1">
       <c r="A28" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>136</v>
@@ -2544,7 +2565,7 @@
     </row>
     <row r="29" spans="1:6" ht="108.75" customHeight="1">
       <c r="A29" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="36" t="s">
         <v>138</v>
@@ -2561,7 +2582,7 @@
     </row>
     <row r="30" spans="1:6" ht="108.75" customHeight="1">
       <c r="A30" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>140</v>
@@ -2578,7 +2599,7 @@
     </row>
     <row r="31" spans="1:6" ht="108.75" customHeight="1">
       <c r="A31" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>142</v>
@@ -2595,7 +2616,7 @@
     </row>
     <row r="32" spans="1:6" ht="108.75" customHeight="1">
       <c r="A32" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>144</v>
@@ -2612,7 +2633,7 @@
     </row>
     <row r="33" spans="1:5" ht="108.75" customHeight="1">
       <c r="A33" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="36" t="s">
         <v>146</v>
@@ -2629,7 +2650,7 @@
     </row>
     <row r="34" spans="1:5" ht="108.75" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="36" t="s">
         <v>148</v>
@@ -2646,7 +2667,7 @@
     </row>
     <row r="35" spans="1:5" ht="108.75" customHeight="1">
       <c r="A35" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>150</v>
@@ -2663,7 +2684,7 @@
     </row>
     <row r="36" spans="1:5" ht="108.75" customHeight="1">
       <c r="A36" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="36" t="s">
         <v>152</v>
@@ -2680,7 +2701,7 @@
     </row>
     <row r="37" spans="1:5" ht="108.75" customHeight="1">
       <c r="A37" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>154</v>
@@ -2697,7 +2718,7 @@
     </row>
     <row r="38" spans="1:5" ht="108.75" customHeight="1">
       <c r="A38" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>156</v>
@@ -2714,7 +2735,7 @@
     </row>
     <row r="39" spans="1:5" ht="108.75" customHeight="1">
       <c r="A39" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>158</v>
@@ -2731,7 +2752,7 @@
     </row>
     <row r="40" spans="1:5" ht="108.75" customHeight="1">
       <c r="A40" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>160</v>
@@ -2748,7 +2769,7 @@
     </row>
     <row r="41" spans="1:5" ht="108.75" customHeight="1">
       <c r="A41" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>162</v>
@@ -2765,7 +2786,7 @@
     </row>
     <row r="42" spans="1:5" ht="108.75" customHeight="1">
       <c r="A42" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>164</v>
@@ -2774,7 +2795,7 @@
         <v>73</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>79</v>
@@ -2782,16 +2803,16 @@
     </row>
     <row r="43" spans="1:5" ht="108.75" customHeight="1">
       <c r="A43" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>80</v>
@@ -2799,16 +2820,16 @@
     </row>
     <row r="44" spans="1:5" ht="27">
       <c r="A44" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="D44" s="45" t="s">
         <v>213</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>214</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>27</v>
